--- a/regionseng/3/environmental protection/environmental protection.xlsx
+++ b/regionseng/3/environmental protection/environmental protection.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED09B7E2-0F45-4029-90B5-5F4E8141E9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Guria" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Forest seeding and planting (ha)</t>
   </si>
@@ -79,9 +78,6 @@
     <t>* Table does not include forests of protected areas.</t>
   </si>
   <si>
-    <t>Forest area* - 86 thousand hectares</t>
-  </si>
-  <si>
     <t>Volume of felled timber* (cubic metre)</t>
   </si>
   <si>
@@ -116,11 +112,14 @@
   <si>
     <t>Of which covered by forest* - 82 thousand hectares</t>
   </si>
+  <si>
+    <t>Forest area* - 85 thousand hectares</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
@@ -156,11 +155,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -212,6 +206,13 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -268,9 +269,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -299,59 +300,56 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 10 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,23 +440,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +475,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,99 +650,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" style="1" customWidth="1"/>
-    <col min="2" max="9" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" style="1" customWidth="1"/>
+    <col min="2" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="15">
+        <v>2013</v>
+      </c>
+      <c r="C5" s="15">
+        <v>2014</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2015</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2016</v>
+      </c>
+      <c r="F5" s="15">
+        <v>2017</v>
+      </c>
+      <c r="G5" s="15">
+        <v>2018</v>
+      </c>
+      <c r="H5" s="15">
+        <v>2019</v>
+      </c>
+      <c r="I5" s="15">
+        <v>2020</v>
+      </c>
+      <c r="J5" s="15">
+        <v>2021</v>
+      </c>
+      <c r="K5" s="15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="18">
-        <v>2013</v>
-      </c>
-      <c r="C5" s="18">
-        <v>2014</v>
-      </c>
-      <c r="D5" s="18">
-        <v>2015</v>
-      </c>
-      <c r="E5" s="18">
-        <v>2016</v>
-      </c>
-      <c r="F5" s="18">
-        <v>2017</v>
-      </c>
-      <c r="G5" s="18">
-        <v>2018</v>
-      </c>
-      <c r="H5" s="18">
-        <v>2019</v>
-      </c>
-      <c r="I5" s="18">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B6" s="10">
         <v>10150</v>
@@ -804,37 +780,49 @@
       <c r="I6" s="10">
         <v>4121</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="10">
+        <v>4072</v>
+      </c>
+      <c r="K6" s="10">
+        <v>5079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="11">
         <v>225</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>474</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>729</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>647</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="11">
         <v>331</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="11">
         <v>194</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="11">
         <v>224</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="11">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="11">
+        <v>175.1</v>
+      </c>
+      <c r="K7" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,23 +835,29 @@
       <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>19</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11">
         <v>2</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="11">
         <v>3</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -891,108 +885,134 @@
       <c r="I9" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="11">
+        <v>33</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>1.3</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>1.3</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>5.9</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>3.3</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <v>6.3</v>
       </c>
-      <c r="G10" s="15">
-        <v>5.8</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="G10" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="12">
         <v>5.7</v>
       </c>
-      <c r="I10" s="15">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>0.4</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>0.4</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>5.3</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F12" s="15">
-        <v>5.3</v>
-      </c>
-      <c r="G12" s="15">
+      <c r="F12" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="H12" s="12">
         <v>4.7</v>
       </c>
-      <c r="H12" s="15">
-        <v>4.7</v>
-      </c>
-      <c r="I12" s="15">
+      <c r="I12" s="12">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>0.8</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="14">
         <v>0.8</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <v>0.6</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="14">
         <v>1</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="14">
         <v>1</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="14">
         <v>1</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="J13" s="14">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>10</v>
       </c>
@@ -1004,62 +1024,67 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-    </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -1069,24 +1094,41 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1094,7 +1136,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1102,7 +1144,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1111,27 +1153,37 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regionseng/3/environmental protection/environmental protection.xlsx
+++ b/regionseng/3/environmental protection/environmental protection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Guria" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Forest seeding and planting (ha)</t>
   </si>
@@ -319,6 +319,18 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -327,18 +339,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -651,19 +651,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" style="1" customWidth="1"/>
-    <col min="2" max="9" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" style="1" customWidth="1"/>
+    <col min="2" max="12" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
@@ -677,8 +677,9 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -690,36 +691,41 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="15">
         <v>2013</v>
@@ -751,8 +757,11 @@
       <c r="K5" s="15">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -786,8 +795,11 @@
       <c r="K6" s="10">
         <v>5079</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="10">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -821,8 +833,11 @@
       <c r="K7" s="11">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -856,8 +871,11 @@
       <c r="K8" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -891,8 +909,11 @@
       <c r="K9" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="11">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -926,8 +947,11 @@
       <c r="K10" s="12">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -941,8 +965,9 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -976,8 +1001,11 @@
       <c r="K12" s="12">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1011,92 +1039,107 @@
       <c r="K13" s="14">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="L13" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -1104,7 +1147,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1116,7 +1159,7 @@
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1128,7 +1171,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1136,7 +1179,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1144,7 +1187,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1156,7 +1199,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -1164,7 +1207,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -1174,16 +1217,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
